--- a/Customer/Cust 2025/Cargo DNI 2025.xlsx
+++ b/Customer/Cust 2025/Cargo DNI 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo CUST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6D0EF9-B1C2-49DC-B027-DF45065F033A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDFF186-7A31-4C1F-BC4F-54E9D50178FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -130,6 +130,41 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>S0086240</t>
+  </si>
+  <si>
+    <r>
+      <t>安能：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300598805723</t>
+    </r>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>胶水glue</t>
+  </si>
+  <si>
+    <t>液体liquid</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -144,7 +179,7 @@
     <numFmt numFmtId="168" formatCode="0.000_ "/>
     <numFmt numFmtId="169" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +241,19 @@
       <color theme="1"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -328,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,64 +459,109 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,11 +880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,11 +964,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -887,10 +980,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -907,179 +1000,337 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="21">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="43">
         <v>45674</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="31">
+      <c r="H5" s="29"/>
+      <c r="I5" s="39">
         <v>80</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="30">
         <v>0.12953200000000001</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="29">
         <v>53</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="29">
         <v>52</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="29">
         <v>47</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" ht="21">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="34" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="37">
+      <c r="G6" s="40"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="30">
         <v>9.3149999999999997E-2</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="29">
         <v>45</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="29">
         <v>46</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="29">
         <v>45</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16" ht="21">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="34" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="37">
+      <c r="G7" s="40"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="30">
         <v>9.2663999999999996E-2</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="29">
         <v>54</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="29">
         <v>39</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="29">
         <v>44</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" ht="21">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="34" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="37">
+      <c r="G8" s="40"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="30">
         <v>9.2663999999999996E-2</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="29">
         <v>54</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="29">
         <v>39</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="29">
         <v>44</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" ht="21">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="34" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="37">
+      <c r="G9" s="41"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="30">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="29">
         <v>39</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="29">
         <v>30</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="29">
         <v>21</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="22.5">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="44">
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32">
         <v>80</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="34">
         <v>0.43257999999999996</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" ht="21">
+      <c r="B11" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="49">
+        <v>45724</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="48">
+        <v>90</v>
+      </c>
+      <c r="J11" s="52">
+        <v>0.18499199999999999</v>
+      </c>
+      <c r="K11" s="51">
+        <v>41</v>
+      </c>
+      <c r="L11" s="51">
+        <v>48</v>
+      </c>
+      <c r="M11" s="51">
+        <v>47</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="51"/>
+    </row>
+    <row r="12" spans="1:16" ht="21">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="52">
+        <v>0.19458</v>
+      </c>
+      <c r="K12" s="51">
+        <v>45</v>
+      </c>
+      <c r="L12" s="51">
+        <v>47</v>
+      </c>
+      <c r="M12" s="51">
+        <v>46</v>
+      </c>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="51"/>
+    </row>
+    <row r="13" spans="1:16" ht="21">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="52">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K13" s="51">
+        <v>40</v>
+      </c>
+      <c r="L13" s="51">
+        <v>30</v>
+      </c>
+      <c r="M13" s="51">
+        <v>20</v>
+      </c>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:16" ht="21">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="52">
+        <v>3.0380000000000001E-2</v>
+      </c>
+      <c r="K14" s="51">
+        <v>62</v>
+      </c>
+      <c r="L14" s="51">
+        <v>49</v>
+      </c>
+      <c r="M14" s="51">
+        <v>10</v>
+      </c>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:16" ht="22.5">
+      <c r="B15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60">
+        <v>90</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0.48195200000000005</v>
+      </c>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A3:B3"/>
@@ -1180,11 +1431,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1196,10 +1447,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
